--- a/model_templates/ark.OlinkAssayMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkAssayMetadataTemplate.xlsx
@@ -5052,7 +5052,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Component</t>
   </si>
@@ -5103,6 +5103,9 @@
   </si>
   <si>
     <t>Olink Target 48</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Olink Target 96</t>
@@ -32521,10 +32524,13 @@
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
